--- a/planning_schedule.xlsx
+++ b/planning_schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8AB36D-E288-4E19-AF66-7975783394A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF992F3A-9167-4E8B-8AB2-6242DE11D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CALENDARIO" sheetId="15" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>UC1</t>
   </si>
@@ -146,9 +146,6 @@
     <t>A(8)</t>
   </si>
   <si>
-    <t>A(10)</t>
-  </si>
-  <si>
     <t>D(11)</t>
   </si>
   <si>
@@ -177,15 +174,6 @@
   </si>
   <si>
     <t>R(7)</t>
-  </si>
-  <si>
-    <t>D(12)</t>
-  </si>
-  <si>
-    <t>I(10)</t>
-  </si>
-  <si>
-    <t>T(4)</t>
   </si>
   <si>
     <t xml:space="preserve">Design </t>
@@ -224,13 +212,40 @@
     <t>D(9)</t>
   </si>
   <si>
-    <t>D(7)</t>
-  </si>
-  <si>
     <t>I(6)</t>
   </si>
   <si>
     <t>I(7)</t>
+  </si>
+  <si>
+    <t>R(2)</t>
+  </si>
+  <si>
+    <t>A(3)</t>
+  </si>
+  <si>
+    <t>D(5)</t>
+  </si>
+  <si>
+    <t>I(3)</t>
+  </si>
+  <si>
+    <t>D(4)</t>
+  </si>
+  <si>
+    <t>I(5)</t>
+  </si>
+  <si>
+    <t>T(1)</t>
+  </si>
+  <si>
+    <t>A(6)</t>
+  </si>
+  <si>
+    <t>D(3)</t>
+  </si>
+  <si>
+    <t>I(4)</t>
   </si>
 </sst>
 </file>
@@ -238,11 +253,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="dd"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -995,13 +1010,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" applyFill="0" applyProtection="0">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -1017,10 +1032,10 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1053,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1065,11 +1080,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,136 +1247,70 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="32" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="36" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="40" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="43" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="47" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="1" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="33" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="37" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="41" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="44" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="48" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="34" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="38" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="42" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="20" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="25" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="26" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="29" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="32" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="36" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="40" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="43" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="47" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="33" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="37" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="41" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="30" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="34" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="38" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="42" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="31" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="35" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="39" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="4" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="21" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="25" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Detalle de día" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Día" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezado de notas" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Énfasis1" xfId="3" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="31" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="35" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="39" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="4" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="23" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="21" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="15" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Millares [0]" xfId="16" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Moneda" xfId="17" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moneda [0]" xfId="18" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="13" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="20" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="23" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="26" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="22" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Notas" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Porcentaje" xfId="19" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="24" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="28" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="13" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="24" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="14" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="28" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1539,290 +1622,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D038F076-FA9B-4745-827B-E05F1A315F0E}">
   <dimension ref="A1:MI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="BE30" sqref="BE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" customWidth="1"/>
     <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
     <col min="12" max="23" width="5.33203125" customWidth="1"/>
-    <col min="24" max="24" width="5.109375" customWidth="1"/>
+    <col min="24" max="24" width="5.1328125" customWidth="1"/>
     <col min="25" max="35" width="5.33203125" customWidth="1"/>
     <col min="101" max="101" width="5" bestFit="1" customWidth="1"/>
     <col min="103" max="110" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="203" max="210" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="203" max="210" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="359" max="359" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:347" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:347" x14ac:dyDescent="0.45">
       <c r="A1" s="10"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15">
         <v>2</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="15">
         <v>3</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="15">
         <v>4</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="15">
         <v>5</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="15">
         <v>6</v>
       </c>
-      <c r="H1" s="34">
+      <c r="H1" s="15">
         <v>7</v>
       </c>
-      <c r="I1" s="34">
+      <c r="I1" s="15">
         <v>8</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="15">
         <v>9</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="15">
         <v>10</v>
       </c>
-      <c r="L1" s="34">
+      <c r="L1" s="15">
         <v>11</v>
       </c>
-      <c r="M1" s="34">
+      <c r="M1" s="15">
         <v>12</v>
       </c>
-      <c r="N1" s="34">
+      <c r="N1" s="15">
         <v>13</v>
       </c>
-      <c r="O1" s="34">
+      <c r="O1" s="15">
         <v>14</v>
       </c>
-      <c r="P1" s="34">
+      <c r="P1" s="15">
         <v>15</v>
       </c>
-      <c r="Q1" s="34">
+      <c r="Q1" s="15">
         <v>16</v>
       </c>
-      <c r="R1" s="34">
+      <c r="R1" s="15">
         <v>17</v>
       </c>
-      <c r="S1" s="34">
+      <c r="S1" s="15">
         <v>18</v>
       </c>
-      <c r="T1" s="34">
+      <c r="T1" s="15">
         <v>19</v>
       </c>
-      <c r="U1" s="34">
+      <c r="U1" s="15">
         <v>20</v>
       </c>
-      <c r="V1" s="34">
+      <c r="V1" s="15">
         <v>21</v>
       </c>
-      <c r="W1" s="34">
+      <c r="W1" s="15">
         <v>22</v>
       </c>
-      <c r="X1" s="34">
+      <c r="X1" s="15">
         <v>23</v>
       </c>
-      <c r="Y1" s="34">
+      <c r="Y1" s="15">
         <v>24</v>
       </c>
-      <c r="Z1" s="34">
+      <c r="Z1" s="15">
         <v>25</v>
       </c>
-      <c r="AA1" s="34">
+      <c r="AA1" s="15">
         <v>26</v>
       </c>
-      <c r="AB1" s="34">
+      <c r="AB1" s="15">
         <v>27</v>
       </c>
-      <c r="AC1" s="34">
+      <c r="AC1" s="15">
         <v>28</v>
       </c>
-      <c r="AD1" s="34">
+      <c r="AD1" s="15">
         <v>29</v>
       </c>
-      <c r="AE1" s="34">
+      <c r="AE1" s="15">
         <v>30</v>
       </c>
-      <c r="AF1" s="34">
+      <c r="AF1" s="15">
         <v>31</v>
       </c>
-      <c r="AG1" s="34">
+      <c r="AG1" s="15">
         <v>32</v>
       </c>
-      <c r="AH1" s="34">
+      <c r="AH1" s="15">
         <v>33</v>
       </c>
-      <c r="AI1" s="34">
+      <c r="AI1" s="15">
         <v>34</v>
       </c>
-      <c r="AJ1" s="34">
+      <c r="AJ1" s="15">
         <v>35</v>
       </c>
-      <c r="AK1" s="34">
+      <c r="AK1" s="15">
         <v>36</v>
       </c>
-      <c r="AL1" s="34">
+      <c r="AL1" s="15">
         <v>37</v>
       </c>
-      <c r="AM1" s="34">
+      <c r="AM1" s="15">
         <v>38</v>
       </c>
-      <c r="AN1" s="34">
+      <c r="AN1" s="15">
         <v>39</v>
       </c>
-      <c r="AO1" s="34">
+      <c r="AO1" s="15">
         <v>40</v>
       </c>
-      <c r="AP1" s="34">
+      <c r="AP1" s="15">
         <v>41</v>
       </c>
-      <c r="AQ1" s="34">
+      <c r="AQ1" s="15">
         <v>42</v>
       </c>
-      <c r="AR1" s="34">
+      <c r="AR1" s="15">
         <v>43</v>
       </c>
-      <c r="AS1" s="34">
+      <c r="AS1" s="15">
         <v>44</v>
       </c>
-      <c r="AT1" s="34">
+      <c r="AT1" s="15">
         <v>45</v>
       </c>
-      <c r="AU1" s="34">
+      <c r="AU1" s="15">
         <v>46</v>
       </c>
-      <c r="AV1" s="34">
+      <c r="AV1" s="15">
         <v>47</v>
       </c>
-      <c r="AW1" s="34">
+      <c r="AW1" s="15">
         <v>48</v>
       </c>
-      <c r="AX1" s="34">
+      <c r="AX1" s="15">
         <v>49</v>
       </c>
-      <c r="AY1" s="34">
+      <c r="AY1" s="15">
         <v>50</v>
       </c>
-      <c r="AZ1" s="34">
+      <c r="AZ1" s="15">
         <v>51</v>
       </c>
-      <c r="BA1" s="34">
+      <c r="BA1" s="15">
         <v>52</v>
       </c>
-      <c r="BB1" s="34">
+      <c r="BB1" s="15">
         <v>53</v>
       </c>
-      <c r="BC1" s="34">
+      <c r="BC1" s="15">
         <v>54</v>
       </c>
-      <c r="BD1" s="34">
+      <c r="BD1" s="15">
         <v>55</v>
       </c>
-      <c r="BE1" s="34">
+      <c r="BE1" s="15">
         <v>56</v>
       </c>
-      <c r="BF1" s="34">
+      <c r="BF1" s="15">
         <v>57</v>
       </c>
-      <c r="BG1" s="34">
+      <c r="BG1" s="15">
         <v>58</v>
       </c>
-      <c r="BH1" s="34">
+      <c r="BH1" s="15">
         <v>59</v>
       </c>
-      <c r="BI1" s="34">
+      <c r="BI1" s="15">
         <v>60</v>
       </c>
-      <c r="BJ1" s="34">
+      <c r="BJ1" s="15">
         <v>61</v>
       </c>
-      <c r="BK1" s="34">
+      <c r="BK1" s="15">
         <v>62</v>
       </c>
-      <c r="BL1" s="34">
+      <c r="BL1" s="15">
         <v>63</v>
       </c>
-      <c r="BM1" s="34">
+      <c r="BM1" s="15">
         <v>64</v>
       </c>
-      <c r="BN1" s="34">
+      <c r="BN1" s="15">
         <v>65</v>
       </c>
-      <c r="BO1" s="34">
+      <c r="BO1" s="15">
         <v>66</v>
       </c>
-      <c r="BP1" s="34">
+      <c r="BP1" s="15">
         <v>67</v>
       </c>
-      <c r="BQ1" s="34">
+      <c r="BQ1" s="15">
         <v>68</v>
       </c>
-      <c r="BR1" s="34">
+      <c r="BR1" s="15">
         <v>69</v>
       </c>
-      <c r="BS1" s="34">
+      <c r="BS1" s="15">
         <v>70</v>
       </c>
-      <c r="BT1" s="34">
+      <c r="BT1" s="15">
         <v>71</v>
       </c>
-      <c r="BU1" s="34">
+      <c r="BU1" s="15">
         <v>72</v>
       </c>
-      <c r="BV1" s="34">
+      <c r="BV1" s="15">
         <v>73</v>
       </c>
-      <c r="BW1" s="34">
+      <c r="BW1" s="15">
         <v>74</v>
       </c>
-      <c r="BX1" s="34">
+      <c r="BX1" s="15">
         <v>75</v>
       </c>
-      <c r="BY1" s="34">
+      <c r="BY1" s="15">
         <v>76</v>
       </c>
-      <c r="BZ1" s="34">
+      <c r="BZ1" s="15">
         <v>77</v>
       </c>
-      <c r="CA1" s="34">
+      <c r="CA1" s="15">
         <v>78</v>
       </c>
-      <c r="CB1" s="34">
+      <c r="CB1" s="15">
         <v>79</v>
       </c>
-      <c r="CC1" s="34">
+      <c r="CC1" s="15">
         <v>80</v>
       </c>
-      <c r="CD1" s="34">
+      <c r="CD1" s="15">
         <v>81</v>
       </c>
-      <c r="CE1" s="34">
+      <c r="CE1" s="15">
         <v>82</v>
       </c>
-      <c r="CF1" s="34">
+      <c r="CF1" s="15">
         <v>83</v>
       </c>
-      <c r="CG1" s="34">
+      <c r="CG1" s="15">
         <v>84</v>
       </c>
-      <c r="CH1" s="34">
+      <c r="CH1" s="15">
         <v>85</v>
       </c>
-      <c r="CI1" s="34">
+      <c r="CI1" s="15">
         <v>86</v>
       </c>
-      <c r="CJ1" s="34">
+      <c r="CJ1" s="15">
         <v>87</v>
       </c>
-      <c r="CK1" s="34">
+      <c r="CK1" s="15">
         <v>88</v>
       </c>
       <c r="CL1" s="3"/>
@@ -1838,63 +1921,57 @@
       <c r="CV1" s="3"/>
       <c r="CW1" s="3"/>
     </row>
-    <row r="2" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="I2" s="7"/>
+      <c r="Q2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="80"/>
       <c r="AW2" s="7"/>
       <c r="BE2" s="7"/>
       <c r="BM2" s="7"/>
@@ -1902,11 +1979,11 @@
       <c r="CC2" s="7"/>
       <c r="CK2" s="7"/>
     </row>
-    <row r="3" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="36"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1914,60 +1991,59 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="7"/>
-      <c r="S3" s="41" t="s">
+      <c r="Y3" s="4"/>
+      <c r="AD3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41" t="s">
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="40" t="s">
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="BB3" s="40"/>
-      <c r="BE3" s="7"/>
-      <c r="BM3" s="7"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM3" s="20"/>
       <c r="BU3" s="7"/>
       <c r="CC3" s="7"/>
       <c r="CK3" s="7"/>
     </row>
-    <row r="4" spans="1:347" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:347" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -2001,7 +2077,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="36"/>
+      <c r="AG4" s="17"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
@@ -2038,39 +2114,39 @@
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="7"/>
-      <c r="BV4" s="41" t="s">
+      <c r="BR4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41" t="s">
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
+      <c r="BW4" s="40"/>
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
       <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="42"/>
+      <c r="CD4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE4" s="43"/>
+      <c r="CF4" s="43"/>
+      <c r="CG4" s="43"/>
+      <c r="CH4" s="43"/>
+      <c r="CI4" s="43"/>
+      <c r="CJ4" s="43"/>
+      <c r="CK4" s="43"/>
       <c r="CL4" s="3"/>
       <c r="CM4" s="3"/>
       <c r="CN4" s="3"/>
       <c r="CX4" s="5"/>
     </row>
-    <row r="5" spans="1:347" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:347" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
@@ -2105,66 +2181,56 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="3"/>
+      <c r="AH5" s="31"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41" t="s">
+      <c r="AO5" s="4"/>
+      <c r="AV5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="42"/>
-      <c r="BQ5" s="42"/>
-      <c r="BR5" s="40" t="s">
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="40"/>
+      <c r="BH5" s="40"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="BS5" s="40"/>
-      <c r="BT5" s="40"/>
-      <c r="BU5" s="40"/>
-      <c r="BV5" s="40"/>
-      <c r="BW5" s="40"/>
-      <c r="BX5" s="40"/>
-      <c r="BY5" s="40"/>
-      <c r="BZ5" s="49"/>
-      <c r="CA5" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="CB5" s="49"/>
-      <c r="CC5" s="7"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
+      <c r="BL5" s="29"/>
+      <c r="BM5" s="29"/>
+      <c r="BN5" s="29"/>
+      <c r="BO5" s="29"/>
+      <c r="BP5" s="29"/>
+      <c r="BQ5" s="29"/>
+      <c r="BR5" s="29"/>
+      <c r="BS5" s="29"/>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+      <c r="CA5" s="37"/>
+      <c r="CB5" s="37"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE5" s="24"/>
       <c r="CF5" s="2"/>
       <c r="CG5" s="2"/>
       <c r="CH5" s="2"/>
@@ -2184,115 +2250,89 @@
       <c r="CW5" s="2"/>
       <c r="CX5" s="5"/>
     </row>
-    <row r="6" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="AF6" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN6" s="50"/>
-      <c r="BO6" s="50"/>
+      <c r="AG6" s="4"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AO6" s="4"/>
+      <c r="AQ6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="27"/>
+      <c r="AW6" s="4"/>
+      <c r="BD6" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="83"/>
+      <c r="BN6" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO6" s="79"/>
+      <c r="BP6" s="80"/>
+      <c r="BQ6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR6" s="79"/>
       <c r="BU6" s="7"/>
       <c r="CC6" s="7"/>
       <c r="CK6" s="7"/>
     </row>
-    <row r="7" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="AG7" s="7"/>
+      <c r="AH7" s="32"/>
       <c r="AO7" s="7"/>
       <c r="AW7" s="7"/>
       <c r="BE7" s="7"/>
-      <c r="BH7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
-      <c r="BK7" s="41"/>
-      <c r="BL7" s="41"/>
-      <c r="BM7" s="41"/>
-      <c r="BN7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="BO7" s="41"/>
-      <c r="BP7" s="41"/>
-      <c r="BQ7" s="41"/>
-      <c r="BR7" s="41"/>
-      <c r="BS7" s="41"/>
-      <c r="BT7" s="41"/>
-      <c r="BU7" s="41"/>
-      <c r="BV7" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW7" s="42"/>
-      <c r="BX7" s="42"/>
-      <c r="BY7" s="42"/>
-      <c r="BZ7" s="42"/>
-      <c r="CA7" s="42"/>
-      <c r="CB7" s="42"/>
-      <c r="CC7" s="42"/>
-      <c r="CD7" s="42"/>
-      <c r="CE7" s="42"/>
-      <c r="CF7" s="42"/>
-      <c r="CG7" s="42"/>
-      <c r="CH7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI7" s="51"/>
-      <c r="CJ7" s="51"/>
-      <c r="CK7" s="51"/>
+      <c r="BK7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="27"/>
+      <c r="BO7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP7" s="26"/>
+      <c r="BQ7" s="27"/>
+      <c r="BU7" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV7" s="43"/>
+      <c r="BW7" s="43"/>
+      <c r="BX7" s="44"/>
+      <c r="CC7" s="4"/>
+      <c r="CF7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG7" s="34"/>
+      <c r="CH7" s="34"/>
+      <c r="CI7" s="34"/>
+      <c r="CJ7" s="34"/>
+      <c r="CK7" s="35"/>
     </row>
-    <row r="8" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:347" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="7"/>
@@ -2305,16 +2345,22 @@
       <c r="BM8" s="7"/>
       <c r="BU8" s="7"/>
       <c r="CC8" s="7"/>
-      <c r="CH8" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="CI8" s="41"/>
-      <c r="CJ8" s="41"/>
-      <c r="CK8" s="41"/>
+      <c r="CD8" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE8" s="61"/>
+      <c r="CF8" s="61"/>
+      <c r="CG8" s="62"/>
+      <c r="CH8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="CI8" s="40"/>
+      <c r="CJ8" s="40"/>
+      <c r="CK8" s="4"/>
     </row>
-    <row r="9" spans="1:347" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>14</v>
+    <row r="9" spans="1:347" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2403,7 +2449,9 @@
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
-      <c r="CK9" s="4"/>
+      <c r="CK9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="CL9" s="3"/>
       <c r="CM9" s="3"/>
       <c r="CN9" s="3"/>
@@ -2574,9 +2622,9 @@
       <c r="MH9" s="1"/>
       <c r="MI9" s="1"/>
     </row>
-    <row r="10" spans="1:347" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>15</v>
+    <row r="10" spans="1:347" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2592,7 +2640,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="29"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2843,7 +2891,7 @@
       <c r="MH10" s="1"/>
       <c r="MI10" s="1"/>
     </row>
-    <row r="11" spans="1:347" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:347" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2937,7 +2985,7 @@
       <c r="CN11" s="3"/>
       <c r="CW11" s="5"/>
     </row>
-    <row r="12" spans="1:347" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:347" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3031,7 +3079,7 @@
       <c r="CN12" s="3"/>
       <c r="CW12" s="5"/>
     </row>
-    <row r="13" spans="1:347" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:347" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3125,117 +3173,117 @@
       <c r="CN13" s="3"/>
       <c r="CW13" s="5"/>
     </row>
-    <row r="14" spans="1:347" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27">
+    <row r="14" spans="1:347" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="53">
         <v>16</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="27">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="53">
         <v>17</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="27">
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="53">
         <v>18</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="27">
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="53">
         <v>21</v>
       </c>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="27">
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="53">
         <v>22</v>
       </c>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="28">
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="58">
         <v>23</v>
       </c>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="27">
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="53">
         <v>24</v>
       </c>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="32"/>
-      <c r="BF14" s="27">
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
+      <c r="BC14" s="58"/>
+      <c r="BD14" s="58"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="53">
         <v>25</v>
       </c>
-      <c r="BG14" s="28"/>
-      <c r="BH14" s="28"/>
-      <c r="BI14" s="28"/>
-      <c r="BJ14" s="28"/>
-      <c r="BK14" s="28"/>
-      <c r="BL14" s="28"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="27">
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="58"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="58"/>
+      <c r="BM14" s="54"/>
+      <c r="BN14" s="53">
         <v>28</v>
       </c>
-      <c r="BO14" s="28"/>
-      <c r="BP14" s="28"/>
-      <c r="BQ14" s="28"/>
-      <c r="BR14" s="28"/>
-      <c r="BS14" s="28"/>
-      <c r="BT14" s="28"/>
-      <c r="BU14" s="32"/>
-      <c r="BV14" s="27">
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="58"/>
+      <c r="BQ14" s="58"/>
+      <c r="BR14" s="58"/>
+      <c r="BS14" s="58"/>
+      <c r="BT14" s="58"/>
+      <c r="BU14" s="54"/>
+      <c r="BV14" s="53">
         <v>29</v>
       </c>
-      <c r="BW14" s="28"/>
-      <c r="BX14" s="28"/>
-      <c r="BY14" s="28"/>
-      <c r="BZ14" s="28"/>
-      <c r="CA14" s="28"/>
-      <c r="CB14" s="28"/>
-      <c r="CC14" s="32"/>
-      <c r="CD14" s="27">
+      <c r="BW14" s="58"/>
+      <c r="BX14" s="58"/>
+      <c r="BY14" s="58"/>
+      <c r="BZ14" s="58"/>
+      <c r="CA14" s="58"/>
+      <c r="CB14" s="58"/>
+      <c r="CC14" s="54"/>
+      <c r="CD14" s="53">
         <v>30</v>
       </c>
-      <c r="CE14" s="28"/>
-      <c r="CF14" s="28"/>
-      <c r="CG14" s="28"/>
-      <c r="CH14" s="28"/>
-      <c r="CI14" s="28"/>
-      <c r="CJ14" s="28"/>
-      <c r="CK14" s="32"/>
+      <c r="CE14" s="58"/>
+      <c r="CF14" s="58"/>
+      <c r="CG14" s="58"/>
+      <c r="CH14" s="58"/>
+      <c r="CI14" s="58"/>
+      <c r="CJ14" s="58"/>
+      <c r="CK14" s="54"/>
       <c r="CL14" s="2"/>
       <c r="CM14" s="2"/>
       <c r="CN14" s="2"/>
@@ -3399,109 +3447,109 @@
       <c r="LT14" s="2"/>
       <c r="LU14" s="2"/>
     </row>
-    <row r="15" spans="1:347" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:347" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="14"/>
-      <c r="BR15" s="14"/>
-      <c r="BS15" s="14"/>
-      <c r="BT15" s="14"/>
-      <c r="BU15" s="14"/>
-      <c r="BV15" s="14"/>
-      <c r="BW15" s="14"/>
-      <c r="BX15" s="14"/>
-      <c r="BY15" s="14"/>
-      <c r="BZ15" s="14"/>
-      <c r="CA15" s="14"/>
-      <c r="CB15" s="14"/>
-      <c r="CC15" s="14"/>
-      <c r="CD15" s="14"/>
-      <c r="CE15" s="14"/>
-      <c r="CF15" s="14"/>
-      <c r="CG15" s="14"/>
-      <c r="CH15" s="14"/>
-      <c r="CI15" s="14"/>
-      <c r="CJ15" s="14"/>
-      <c r="CK15" s="15"/>
-      <c r="CL15" s="31"/>
-      <c r="CM15" s="31"/>
-      <c r="CN15" s="31"/>
-      <c r="CO15" s="31"/>
-      <c r="CP15" s="31"/>
-      <c r="CQ15" s="31"/>
-      <c r="CR15" s="31"/>
-      <c r="CS15" s="31"/>
-      <c r="CT15" s="31"/>
-      <c r="CU15" s="31"/>
-      <c r="CV15" s="31"/>
-      <c r="CW15" s="31"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="64"/>
+      <c r="AZ15" s="64"/>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="64"/>
+      <c r="BD15" s="64"/>
+      <c r="BE15" s="64"/>
+      <c r="BF15" s="64"/>
+      <c r="BG15" s="64"/>
+      <c r="BH15" s="64"/>
+      <c r="BI15" s="64"/>
+      <c r="BJ15" s="64"/>
+      <c r="BK15" s="64"/>
+      <c r="BL15" s="64"/>
+      <c r="BM15" s="64"/>
+      <c r="BN15" s="64"/>
+      <c r="BO15" s="64"/>
+      <c r="BP15" s="64"/>
+      <c r="BQ15" s="64"/>
+      <c r="BR15" s="64"/>
+      <c r="BS15" s="64"/>
+      <c r="BT15" s="64"/>
+      <c r="BU15" s="64"/>
+      <c r="BV15" s="64"/>
+      <c r="BW15" s="64"/>
+      <c r="BX15" s="64"/>
+      <c r="BY15" s="64"/>
+      <c r="BZ15" s="64"/>
+      <c r="CA15" s="64"/>
+      <c r="CB15" s="64"/>
+      <c r="CC15" s="64"/>
+      <c r="CD15" s="64"/>
+      <c r="CE15" s="64"/>
+      <c r="CF15" s="64"/>
+      <c r="CG15" s="64"/>
+      <c r="CH15" s="64"/>
+      <c r="CI15" s="64"/>
+      <c r="CJ15" s="64"/>
+      <c r="CK15" s="65"/>
+      <c r="CL15" s="13"/>
+      <c r="CM15" s="13"/>
+      <c r="CN15" s="13"/>
+      <c r="CO15" s="13"/>
+      <c r="CP15" s="13"/>
+      <c r="CQ15" s="13"/>
+      <c r="CR15" s="13"/>
+      <c r="CS15" s="13"/>
+      <c r="CT15" s="13"/>
+      <c r="CU15" s="13"/>
+      <c r="CV15" s="13"/>
+      <c r="CW15" s="13"/>
       <c r="GB15" s="2"/>
       <c r="GC15" s="2"/>
       <c r="GD15" s="2"/>
@@ -3653,107 +3701,107 @@
       <c r="LT15" s="2"/>
       <c r="LU15" s="2"/>
     </row>
-    <row r="16" spans="1:347" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
-      <c r="BL16" s="17"/>
-      <c r="BM16" s="17"/>
-      <c r="BN16" s="17"/>
-      <c r="BO16" s="17"/>
-      <c r="BP16" s="17"/>
-      <c r="BQ16" s="17"/>
-      <c r="BR16" s="17"/>
-      <c r="BS16" s="17"/>
-      <c r="BT16" s="17"/>
-      <c r="BU16" s="17"/>
-      <c r="BV16" s="17"/>
-      <c r="BW16" s="17"/>
-      <c r="BX16" s="17"/>
-      <c r="BY16" s="17"/>
-      <c r="BZ16" s="17"/>
-      <c r="CA16" s="17"/>
-      <c r="CB16" s="17"/>
-      <c r="CC16" s="17"/>
-      <c r="CD16" s="17"/>
-      <c r="CE16" s="17"/>
-      <c r="CF16" s="17"/>
-      <c r="CG16" s="17"/>
-      <c r="CH16" s="17"/>
-      <c r="CI16" s="17"/>
-      <c r="CJ16" s="17"/>
-      <c r="CK16" s="18"/>
-      <c r="CL16" s="31"/>
-      <c r="CM16" s="31"/>
-      <c r="CN16" s="31"/>
-      <c r="CO16" s="31"/>
-      <c r="CP16" s="31"/>
-      <c r="CQ16" s="31"/>
-      <c r="CR16" s="31"/>
-      <c r="CS16" s="31"/>
-      <c r="CT16" s="31"/>
-      <c r="CU16" s="31"/>
-      <c r="CV16" s="31"/>
-      <c r="CW16" s="31"/>
+    <row r="16" spans="1:347" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="67"/>
+      <c r="BD16" s="67"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="67"/>
+      <c r="BG16" s="67"/>
+      <c r="BH16" s="67"/>
+      <c r="BI16" s="67"/>
+      <c r="BJ16" s="67"/>
+      <c r="BK16" s="67"/>
+      <c r="BL16" s="67"/>
+      <c r="BM16" s="67"/>
+      <c r="BN16" s="67"/>
+      <c r="BO16" s="67"/>
+      <c r="BP16" s="67"/>
+      <c r="BQ16" s="67"/>
+      <c r="BR16" s="67"/>
+      <c r="BS16" s="67"/>
+      <c r="BT16" s="67"/>
+      <c r="BU16" s="67"/>
+      <c r="BV16" s="67"/>
+      <c r="BW16" s="67"/>
+      <c r="BX16" s="67"/>
+      <c r="BY16" s="67"/>
+      <c r="BZ16" s="67"/>
+      <c r="CA16" s="67"/>
+      <c r="CB16" s="67"/>
+      <c r="CC16" s="67"/>
+      <c r="CD16" s="67"/>
+      <c r="CE16" s="67"/>
+      <c r="CF16" s="67"/>
+      <c r="CG16" s="67"/>
+      <c r="CH16" s="67"/>
+      <c r="CI16" s="67"/>
+      <c r="CJ16" s="67"/>
+      <c r="CK16" s="68"/>
+      <c r="CL16" s="13"/>
+      <c r="CM16" s="13"/>
+      <c r="CN16" s="13"/>
+      <c r="CO16" s="13"/>
+      <c r="CP16" s="13"/>
+      <c r="CQ16" s="13"/>
+      <c r="CR16" s="13"/>
+      <c r="CS16" s="13"/>
+      <c r="CT16" s="13"/>
+      <c r="CU16" s="13"/>
+      <c r="CV16" s="13"/>
+      <c r="CW16" s="13"/>
       <c r="GB16" s="2"/>
       <c r="GC16" s="2"/>
       <c r="GD16" s="2"/>
@@ -3905,277 +3953,277 @@
       <c r="LT16" s="2"/>
       <c r="LU16" s="2"/>
     </row>
-    <row r="17" spans="1:102" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="20"/>
-      <c r="BB17" s="20"/>
-      <c r="BC17" s="20"/>
-      <c r="BD17" s="20"/>
-      <c r="BE17" s="20"/>
-      <c r="BF17" s="20"/>
-      <c r="BG17" s="20"/>
-      <c r="BH17" s="20"/>
-      <c r="BI17" s="20"/>
-      <c r="BJ17" s="20"/>
-      <c r="BK17" s="20"/>
-      <c r="BL17" s="20"/>
-      <c r="BM17" s="20"/>
-      <c r="BN17" s="20"/>
-      <c r="BO17" s="20"/>
-      <c r="BP17" s="20"/>
-      <c r="BQ17" s="20"/>
-      <c r="BR17" s="20"/>
-      <c r="BS17" s="20"/>
-      <c r="BT17" s="20"/>
-      <c r="BU17" s="20"/>
-      <c r="BV17" s="20"/>
-      <c r="BW17" s="20"/>
-      <c r="BX17" s="20"/>
-      <c r="BY17" s="20"/>
-      <c r="BZ17" s="20"/>
-      <c r="CA17" s="20"/>
-      <c r="CB17" s="20"/>
-      <c r="CC17" s="20"/>
-      <c r="CD17" s="20"/>
-      <c r="CE17" s="20"/>
-      <c r="CF17" s="20"/>
-      <c r="CG17" s="20"/>
-      <c r="CH17" s="20"/>
-      <c r="CI17" s="20"/>
-      <c r="CJ17" s="20"/>
-      <c r="CK17" s="21"/>
-      <c r="CL17" s="31"/>
-      <c r="CM17" s="31"/>
-      <c r="CN17" s="31"/>
-      <c r="CO17" s="31"/>
-      <c r="CP17" s="31"/>
-      <c r="CQ17" s="31"/>
-      <c r="CR17" s="31"/>
-      <c r="CS17" s="31"/>
-      <c r="CT17" s="31"/>
-      <c r="CU17" s="31"/>
-      <c r="CV17" s="31"/>
-      <c r="CW17" s="31"/>
+    <row r="17" spans="1:102" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="70"/>
+      <c r="BF17" s="70"/>
+      <c r="BG17" s="70"/>
+      <c r="BH17" s="70"/>
+      <c r="BI17" s="70"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="70"/>
+      <c r="BL17" s="70"/>
+      <c r="BM17" s="70"/>
+      <c r="BN17" s="70"/>
+      <c r="BO17" s="70"/>
+      <c r="BP17" s="70"/>
+      <c r="BQ17" s="70"/>
+      <c r="BR17" s="70"/>
+      <c r="BS17" s="70"/>
+      <c r="BT17" s="70"/>
+      <c r="BU17" s="70"/>
+      <c r="BV17" s="70"/>
+      <c r="BW17" s="70"/>
+      <c r="BX17" s="70"/>
+      <c r="BY17" s="70"/>
+      <c r="BZ17" s="70"/>
+      <c r="CA17" s="70"/>
+      <c r="CB17" s="70"/>
+      <c r="CC17" s="70"/>
+      <c r="CD17" s="70"/>
+      <c r="CE17" s="70"/>
+      <c r="CF17" s="70"/>
+      <c r="CG17" s="70"/>
+      <c r="CH17" s="70"/>
+      <c r="CI17" s="70"/>
+      <c r="CJ17" s="70"/>
+      <c r="CK17" s="71"/>
+      <c r="CL17" s="13"/>
+      <c r="CM17" s="13"/>
+      <c r="CN17" s="13"/>
+      <c r="CO17" s="13"/>
+      <c r="CP17" s="13"/>
+      <c r="CQ17" s="13"/>
+      <c r="CR17" s="13"/>
+      <c r="CS17" s="13"/>
+      <c r="CT17" s="13"/>
+      <c r="CU17" s="13"/>
+      <c r="CV17" s="13"/>
+      <c r="CW17" s="13"/>
       <c r="CX17" s="5"/>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
-      <c r="B21" s="34">
+      <c r="B21" s="15">
         <v>89</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="15">
         <v>90</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="15">
         <v>91</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="15">
         <v>92</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="15">
         <v>93</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="15">
         <v>94</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="15">
         <v>95</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="15">
         <v>96</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="15">
         <v>97</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="15">
         <v>98</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="15">
         <v>99</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="15">
         <v>100</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="15">
         <v>101</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="15">
         <v>102</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="15">
         <v>103</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="15">
         <v>104</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="15">
         <v>105</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="15">
         <v>106</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21" s="15">
         <v>107</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="15">
         <v>108</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="15">
         <v>109</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="15">
         <v>110</v>
       </c>
-      <c r="X21" s="34">
+      <c r="X21" s="15">
         <v>111</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21" s="15">
         <v>112</v>
       </c>
-      <c r="Z21" s="34">
+      <c r="Z21" s="15">
         <v>113</v>
       </c>
-      <c r="AA21" s="34">
+      <c r="AA21" s="15">
         <v>114</v>
       </c>
-      <c r="AB21" s="34">
+      <c r="AB21" s="15">
         <v>115</v>
       </c>
-      <c r="AC21" s="34">
+      <c r="AC21" s="15">
         <v>116</v>
       </c>
-      <c r="AD21" s="34">
+      <c r="AD21" s="15">
         <v>117</v>
       </c>
-      <c r="AE21" s="34">
+      <c r="AE21" s="15">
         <v>118</v>
       </c>
-      <c r="AF21" s="34">
+      <c r="AF21" s="15">
         <v>119</v>
       </c>
-      <c r="AG21" s="34">
+      <c r="AG21" s="15">
         <v>120</v>
       </c>
-      <c r="AH21" s="34">
+      <c r="AH21" s="15">
         <v>121</v>
       </c>
-      <c r="AI21" s="34">
+      <c r="AI21" s="15">
         <v>122</v>
       </c>
-      <c r="AJ21" s="34">
+      <c r="AJ21" s="15">
         <v>123</v>
       </c>
-      <c r="AK21" s="34">
+      <c r="AK21" s="15">
         <v>124</v>
       </c>
-      <c r="AL21" s="34">
+      <c r="AL21" s="15">
         <v>125</v>
       </c>
-      <c r="AM21" s="34">
+      <c r="AM21" s="15">
         <v>126</v>
       </c>
-      <c r="AN21" s="34">
+      <c r="AN21" s="15">
         <v>127</v>
       </c>
-      <c r="AO21" s="34">
+      <c r="AO21" s="15">
         <v>128</v>
       </c>
-      <c r="AP21" s="34">
+      <c r="AP21" s="15">
         <v>129</v>
       </c>
-      <c r="AQ21" s="34">
+      <c r="AQ21" s="15">
         <v>130</v>
       </c>
-      <c r="AR21" s="34">
+      <c r="AR21" s="15">
         <v>131</v>
       </c>
-      <c r="AS21" s="34">
+      <c r="AS21" s="15">
         <v>132</v>
       </c>
-      <c r="AT21" s="34">
+      <c r="AT21" s="15">
         <v>133</v>
       </c>
-      <c r="AU21" s="34">
+      <c r="AU21" s="15">
         <v>134</v>
       </c>
-      <c r="AV21" s="34">
+      <c r="AV21" s="15">
         <v>135</v>
       </c>
-      <c r="AW21" s="34">
+      <c r="AW21" s="15">
         <v>136</v>
       </c>
-      <c r="AX21" s="34">
+      <c r="AX21" s="15">
         <v>137</v>
       </c>
-      <c r="AY21" s="34">
+      <c r="AY21" s="15">
         <v>138</v>
       </c>
-      <c r="AZ21" s="34">
+      <c r="AZ21" s="15">
         <v>139</v>
       </c>
-      <c r="BA21" s="34">
+      <c r="BA21" s="15">
         <v>140</v>
       </c>
-      <c r="BB21" s="34">
+      <c r="BB21" s="15">
         <v>141</v>
       </c>
-      <c r="BC21" s="34">
+      <c r="BC21" s="15">
         <v>142</v>
       </c>
-      <c r="BD21" s="34">
+      <c r="BD21" s="15">
         <v>143</v>
       </c>
-      <c r="BE21" s="34">
+      <c r="BE21" s="15">
         <v>144</v>
       </c>
       <c r="BF21" s="3"/>
@@ -4203,8 +4251,8 @@
       <c r="CB21" s="3"/>
       <c r="CC21" s="3"/>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3"/>
@@ -4288,8 +4336,8 @@
       <c r="CB22" s="3"/>
       <c r="CC22" s="3"/>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2"/>
@@ -4375,39 +4423,36 @@
       <c r="CD23" s="2"/>
       <c r="CE23" s="2"/>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" s="39"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="47"/>
+      <c r="Q24" s="4"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -4466,8 +4511,8 @@
       <c r="CB24" s="3"/>
       <c r="CC24" s="3"/>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2"/>
@@ -4551,8 +4596,8 @@
       <c r="CB25" s="3"/>
       <c r="CC25" s="3"/>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2"/>
@@ -4638,35 +4683,17 @@
       <c r="CD26" s="2"/>
       <c r="CE26" s="2"/>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="B27" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="2"/>
+      <c r="I27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="7"/>
@@ -4729,51 +4756,38 @@
       <c r="CD27" s="2"/>
       <c r="CE27" s="2"/>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40" t="s">
+      <c r="E28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="P28" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="40"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
@@ -4826,60 +4840,49 @@
       <c r="CD28" s="2"/>
       <c r="CE28" s="2"/>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH29" s="40"/>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN29" s="40"/>
-      <c r="AO29" s="40"/>
+    <row r="29" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="J29" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
+      <c r="Q29" s="4"/>
+      <c r="W29" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB29" s="47"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="4"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
@@ -4923,9 +4926,9 @@
       <c r="CD29" s="1"/>
       <c r="CE29" s="1"/>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>15</v>
+    <row r="30" spans="1:102" x14ac:dyDescent="0.45">
+      <c r="A30" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4934,65 +4937,51 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="42" t="s">
+      <c r="I30" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX30" s="40"/>
-      <c r="AY30" s="40"/>
-      <c r="AZ30" s="40"/>
-      <c r="BA30" s="40"/>
-      <c r="BB30" s="40"/>
-      <c r="BC30" s="40"/>
-      <c r="BD30" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE30" s="40"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="BE30" s="4"/>
       <c r="BF30" s="3"/>
       <c r="BG30" s="3"/>
       <c r="BH30" s="3"/>
@@ -5020,7 +5009,7 @@
       <c r="CD30" s="1"/>
       <c r="CE30" s="1"/>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5102,7 +5091,7 @@
       <c r="CB31" s="3"/>
       <c r="CC31" s="3"/>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5184,7 +5173,7 @@
       <c r="CB32" s="3"/>
       <c r="CC32" s="3"/>
     </row>
-    <row r="33" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:83" x14ac:dyDescent="0.45">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5192,7 +5181,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="33"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -5200,7 +5189,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="33"/>
+      <c r="Q33" s="14"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -5208,7 +5197,7 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="33"/>
+      <c r="Y33" s="14"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -5216,7 +5205,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-      <c r="AG33" s="33"/>
+      <c r="AG33" s="14"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
@@ -5224,7 +5213,7 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="33"/>
+      <c r="AO33" s="14"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
@@ -5232,7 +5221,7 @@
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
-      <c r="AW33" s="33"/>
+      <c r="AW33" s="14"/>
       <c r="AX33" s="3"/>
       <c r="AY33" s="3"/>
       <c r="AZ33" s="3"/>
@@ -5240,7 +5229,7 @@
       <c r="BB33" s="3"/>
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
-      <c r="BE33" s="33"/>
+      <c r="BE33" s="14"/>
       <c r="BF33" s="3"/>
       <c r="BG33" s="3"/>
       <c r="BH33" s="3"/>
@@ -5266,77 +5255,77 @@
       <c r="CB33" s="3"/>
       <c r="CC33" s="3"/>
     </row>
-    <row r="34" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B34" s="27">
+    <row r="34" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="B34" s="53">
         <v>1</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="27">
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="53">
         <v>2</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="27">
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="53">
         <v>5</v>
       </c>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28">
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58">
         <v>7</v>
       </c>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="27">
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="53">
         <v>9</v>
       </c>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="27">
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="53">
         <v>10</v>
       </c>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="28"/>
-      <c r="AU34" s="28"/>
-      <c r="AV34" s="28"/>
-      <c r="AW34" s="32"/>
-      <c r="AX34" s="27">
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="58"/>
+      <c r="AS34" s="58"/>
+      <c r="AT34" s="58"/>
+      <c r="AU34" s="58"/>
+      <c r="AV34" s="58"/>
+      <c r="AW34" s="54"/>
+      <c r="AX34" s="53">
         <v>12</v>
       </c>
-      <c r="AY34" s="28"/>
-      <c r="AZ34" s="28"/>
-      <c r="BA34" s="28"/>
-      <c r="BB34" s="28"/>
-      <c r="BC34" s="28"/>
-      <c r="BD34" s="28"/>
-      <c r="BE34" s="28"/>
+      <c r="AY34" s="58"/>
+      <c r="AZ34" s="58"/>
+      <c r="BA34" s="58"/>
+      <c r="BB34" s="58"/>
+      <c r="BC34" s="58"/>
+      <c r="BD34" s="58"/>
+      <c r="BE34" s="58"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
@@ -5364,261 +5353,261 @@
       <c r="CD34" s="2"/>
       <c r="CE34" s="2"/>
     </row>
-    <row r="35" spans="2:83" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="12" t="s">
+    <row r="35" spans="2:83" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="12"/>
-      <c r="AW35" s="12"/>
-      <c r="AX35" s="12"/>
-      <c r="AY35" s="12"/>
-      <c r="AZ35" s="12"/>
-      <c r="BA35" s="12"/>
-      <c r="BB35" s="12"/>
-      <c r="BC35" s="12"/>
-      <c r="BD35" s="12"/>
-      <c r="BE35" s="12"/>
-      <c r="BF35" s="31"/>
-      <c r="BG35" s="31"/>
-      <c r="BH35" s="31"/>
-      <c r="BI35" s="31"/>
-      <c r="BJ35" s="31"/>
-      <c r="BK35" s="31"/>
-      <c r="BL35" s="31"/>
-      <c r="BM35" s="31"/>
-      <c r="BN35" s="31"/>
-      <c r="BO35" s="31"/>
-      <c r="BP35" s="31"/>
-      <c r="BQ35" s="31"/>
-      <c r="BR35" s="31"/>
-      <c r="BS35" s="31"/>
-      <c r="BT35" s="31"/>
-      <c r="BU35" s="31"/>
-      <c r="BV35" s="31"/>
-      <c r="BW35" s="31"/>
-      <c r="BX35" s="31"/>
-      <c r="BY35" s="31"/>
-      <c r="BZ35" s="31"/>
-      <c r="CA35" s="31"/>
-      <c r="CB35" s="31"/>
-      <c r="CC35" s="31"/>
-      <c r="CD35" s="31"/>
-      <c r="CE35" s="31"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="59"/>
+      <c r="AU35" s="59"/>
+      <c r="AV35" s="59"/>
+      <c r="AW35" s="59"/>
+      <c r="AX35" s="59"/>
+      <c r="AY35" s="59"/>
+      <c r="AZ35" s="59"/>
+      <c r="BA35" s="59"/>
+      <c r="BB35" s="59"/>
+      <c r="BC35" s="59"/>
+      <c r="BD35" s="59"/>
+      <c r="BE35" s="59"/>
+      <c r="BF35" s="13"/>
+      <c r="BG35" s="13"/>
+      <c r="BH35" s="13"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="13"/>
+      <c r="BK35" s="13"/>
+      <c r="BL35" s="13"/>
+      <c r="BM35" s="13"/>
+      <c r="BN35" s="13"/>
+      <c r="BO35" s="13"/>
+      <c r="BP35" s="13"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="13"/>
+      <c r="BS35" s="13"/>
+      <c r="BT35" s="13"/>
+      <c r="BU35" s="13"/>
+      <c r="BV35" s="13"/>
+      <c r="BW35" s="13"/>
+      <c r="BX35" s="13"/>
+      <c r="BY35" s="13"/>
+      <c r="BZ35" s="13"/>
+      <c r="CA35" s="13"/>
+      <c r="CB35" s="13"/>
+      <c r="CC35" s="13"/>
+      <c r="CD35" s="13"/>
+      <c r="CE35" s="13"/>
     </row>
-    <row r="36" spans="2:83" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="12"/>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="12"/>
-      <c r="AX36" s="12"/>
-      <c r="AY36" s="12"/>
-      <c r="AZ36" s="12"/>
-      <c r="BA36" s="12"/>
-      <c r="BB36" s="12"/>
-      <c r="BC36" s="12"/>
-      <c r="BD36" s="12"/>
-      <c r="BE36" s="12"/>
-      <c r="BF36" s="31"/>
-      <c r="BG36" s="31"/>
-      <c r="BH36" s="31"/>
-      <c r="BI36" s="31"/>
-      <c r="BJ36" s="31"/>
-      <c r="BK36" s="31"/>
-      <c r="BL36" s="31"/>
-      <c r="BM36" s="31"/>
-      <c r="BN36" s="31"/>
-      <c r="BO36" s="31"/>
-      <c r="BP36" s="31"/>
-      <c r="BQ36" s="31"/>
-      <c r="BR36" s="31"/>
-      <c r="BS36" s="31"/>
-      <c r="BT36" s="31"/>
-      <c r="BU36" s="31"/>
-      <c r="BV36" s="31"/>
-      <c r="BW36" s="31"/>
-      <c r="BX36" s="31"/>
-      <c r="BY36" s="31"/>
-      <c r="BZ36" s="31"/>
-      <c r="CA36" s="31"/>
-      <c r="CB36" s="31"/>
-      <c r="CC36" s="31"/>
-      <c r="CD36" s="31"/>
-      <c r="CE36" s="31"/>
+    <row r="36" spans="2:83" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="59"/>
+      <c r="AU36" s="59"/>
+      <c r="AV36" s="59"/>
+      <c r="AW36" s="59"/>
+      <c r="AX36" s="59"/>
+      <c r="AY36" s="59"/>
+      <c r="AZ36" s="59"/>
+      <c r="BA36" s="59"/>
+      <c r="BB36" s="59"/>
+      <c r="BC36" s="59"/>
+      <c r="BD36" s="59"/>
+      <c r="BE36" s="59"/>
+      <c r="BF36" s="13"/>
+      <c r="BG36" s="13"/>
+      <c r="BH36" s="13"/>
+      <c r="BI36" s="13"/>
+      <c r="BJ36" s="13"/>
+      <c r="BK36" s="13"/>
+      <c r="BL36" s="13"/>
+      <c r="BM36" s="13"/>
+      <c r="BN36" s="13"/>
+      <c r="BO36" s="13"/>
+      <c r="BP36" s="13"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="13"/>
+      <c r="BS36" s="13"/>
+      <c r="BT36" s="13"/>
+      <c r="BU36" s="13"/>
+      <c r="BV36" s="13"/>
+      <c r="BW36" s="13"/>
+      <c r="BX36" s="13"/>
+      <c r="BY36" s="13"/>
+      <c r="BZ36" s="13"/>
+      <c r="CA36" s="13"/>
+      <c r="CB36" s="13"/>
+      <c r="CC36" s="13"/>
+      <c r="CD36" s="13"/>
+      <c r="CE36" s="13"/>
     </row>
-    <row r="37" spans="2:83" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="12"/>
-      <c r="AM37" s="12"/>
-      <c r="AN37" s="12"/>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="12"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="12"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="12"/>
-      <c r="AW37" s="12"/>
-      <c r="AX37" s="12"/>
-      <c r="AY37" s="12"/>
-      <c r="AZ37" s="12"/>
-      <c r="BA37" s="12"/>
-      <c r="BB37" s="12"/>
-      <c r="BC37" s="12"/>
-      <c r="BD37" s="12"/>
-      <c r="BE37" s="12"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
-      <c r="BH37" s="31"/>
-      <c r="BI37" s="31"/>
-      <c r="BJ37" s="31"/>
-      <c r="BK37" s="31"/>
-      <c r="BL37" s="31"/>
-      <c r="BM37" s="31"/>
-      <c r="BN37" s="31"/>
-      <c r="BO37" s="31"/>
-      <c r="BP37" s="31"/>
-      <c r="BQ37" s="31"/>
-      <c r="BR37" s="31"/>
-      <c r="BS37" s="31"/>
-      <c r="BT37" s="31"/>
-      <c r="BU37" s="31"/>
-      <c r="BV37" s="31"/>
-      <c r="BW37" s="31"/>
-      <c r="BX37" s="31"/>
-      <c r="BY37" s="31"/>
-      <c r="BZ37" s="31"/>
-      <c r="CA37" s="31"/>
-      <c r="CB37" s="31"/>
-      <c r="CC37" s="31"/>
-      <c r="CD37" s="31"/>
-      <c r="CE37" s="31"/>
+    <row r="37" spans="2:83" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="59"/>
+      <c r="AT37" s="59"/>
+      <c r="AU37" s="59"/>
+      <c r="AV37" s="59"/>
+      <c r="AW37" s="59"/>
+      <c r="AX37" s="59"/>
+      <c r="AY37" s="59"/>
+      <c r="AZ37" s="59"/>
+      <c r="BA37" s="59"/>
+      <c r="BB37" s="59"/>
+      <c r="BC37" s="59"/>
+      <c r="BD37" s="59"/>
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="13"/>
+      <c r="BG37" s="13"/>
+      <c r="BH37" s="13"/>
+      <c r="BI37" s="13"/>
+      <c r="BJ37" s="13"/>
+      <c r="BK37" s="13"/>
+      <c r="BL37" s="13"/>
+      <c r="BM37" s="13"/>
+      <c r="BN37" s="13"/>
+      <c r="BO37" s="13"/>
+      <c r="BP37" s="13"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="13"/>
+      <c r="BS37" s="13"/>
+      <c r="BT37" s="13"/>
+      <c r="BU37" s="13"/>
+      <c r="BV37" s="13"/>
+      <c r="BW37" s="13"/>
+      <c r="BX37" s="13"/>
+      <c r="BY37" s="13"/>
+      <c r="BZ37" s="13"/>
+      <c r="CA37" s="13"/>
+      <c r="CB37" s="13"/>
+      <c r="CC37" s="13"/>
+      <c r="CD37" s="13"/>
+      <c r="CE37" s="13"/>
     </row>
-    <row r="38" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:83" x14ac:dyDescent="0.45">
       <c r="BF38" s="5"/>
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
@@ -5644,133 +5633,116 @@
       <c r="CB38" s="5"/>
       <c r="CC38" s="5"/>
     </row>
-    <row r="40" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+    <row r="40" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="B40" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="M40" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="M40" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="25"/>
+      <c r="N40" s="48"/>
     </row>
-    <row r="41" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="B41" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="53">
+        <v>70</v>
+      </c>
+      <c r="N41" s="54"/>
+    </row>
+    <row r="42" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="B42" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="27">
-        <v>108</v>
-      </c>
-      <c r="N41" s="32"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="53">
+        <v>93</v>
+      </c>
+      <c r="N42" s="54"/>
     </row>
-    <row r="42" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
+    <row r="43" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="B43" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="27">
-        <v>125</v>
-      </c>
-      <c r="N42" s="32"/>
-    </row>
-    <row r="43" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B43" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="27">
-        <v>99</v>
-      </c>
-      <c r="N43" s="32"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="53">
+        <v>76</v>
+      </c>
+      <c r="N43" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="AW30:BC30"/>
-    <mergeCell ref="BD30:BE30"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AS3:AZ3"/>
-    <mergeCell ref="BV4:BY4"/>
-    <mergeCell ref="BZ4:CG4"/>
-    <mergeCell ref="CH4:CK4"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="CH8:CK8"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="K24:S24"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="BV7:CG7"/>
-    <mergeCell ref="CH7:CK7"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AZ5:BG5"/>
-    <mergeCell ref="BH5:BQ5"/>
-    <mergeCell ref="BR5:BZ5"/>
-    <mergeCell ref="AF6:AK6"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AS6:BB6"/>
-    <mergeCell ref="BC6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AE3"/>
-    <mergeCell ref="AF3:AR3"/>
+  <mergeCells count="57">
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="O30:U30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="V30:AE30"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AQ3:BC3"/>
+    <mergeCell ref="BC5:BJ5"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="BR4:BU4"/>
+    <mergeCell ref="BU7:BX7"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E24:M24"/>
     <mergeCell ref="B15:CK17"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="M28:U28"/>
-    <mergeCell ref="V28:AC28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="R29:Y29"/>
-    <mergeCell ref="Z29:AF29"/>
-    <mergeCell ref="AG29:AL29"/>
-    <mergeCell ref="AM29:AO29"/>
-    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="AH14:AO14"/>
+    <mergeCell ref="AP14:AW14"/>
+    <mergeCell ref="AX14:BE14"/>
+    <mergeCell ref="BF14:BM14"/>
+    <mergeCell ref="BN14:BU14"/>
+    <mergeCell ref="BV14:CC14"/>
+    <mergeCell ref="CD14:CK14"/>
     <mergeCell ref="AP34:AW34"/>
     <mergeCell ref="AX34:BE34"/>
     <mergeCell ref="M40:N40"/>
@@ -5783,15 +5755,12 @@
     <mergeCell ref="R34:Y34"/>
     <mergeCell ref="Z34:AG34"/>
     <mergeCell ref="AF30:AL30"/>
-    <mergeCell ref="AM30:AV30"/>
-    <mergeCell ref="Z30:AE30"/>
     <mergeCell ref="B35:BE37"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="L41:L43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="B42:F42"/>
@@ -5799,18 +5768,13 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="AH14:AO14"/>
-    <mergeCell ref="AP14:AW14"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AX14:BE14"/>
-    <mergeCell ref="BF14:BM14"/>
-    <mergeCell ref="BN14:BU14"/>
-    <mergeCell ref="BV14:CC14"/>
-    <mergeCell ref="CD14:CK14"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="CD8:CG8"/>
+    <mergeCell ref="CH8:CJ8"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="P28:U28"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
